--- a/etf_dfs/PGAL.xlsx
+++ b/etf_dfs/PGAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>PGAL</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>41579</v>
       </c>
@@ -456,13 +462,13 @@
         <v>15.78999996185303</v>
       </c>
       <c r="F2">
-        <v>12.02113151550293</v>
+        <v>11.94230270385742</v>
       </c>
       <c r="G2">
         <v>17200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>41609</v>
       </c>
@@ -479,7 +485,7 @@
         <v>15.81999969482422</v>
       </c>
       <c r="F3">
-        <v>12.04397010803223</v>
+        <v>11.96499443054199</v>
       </c>
       <c r="G3">
         <v>1100</v>
@@ -488,7 +494,7 @@
         <v>0.001899919762106794</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>41640</v>
       </c>
@@ -505,7 +511,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="F4">
-        <v>12.05158424377441</v>
+        <v>11.97255706787109</v>
       </c>
       <c r="G4">
         <v>4700</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.0006321257316526108</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.0008964657560819776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>41671</v>
       </c>
@@ -531,7 +540,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F5">
-        <v>13.28491020202637</v>
+        <v>13.19779682159424</v>
       </c>
       <c r="G5">
         <v>30700</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.1023373876842149</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.05835702267529225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>41699</v>
       </c>
@@ -557,7 +569,7 @@
         <v>18.17000007629395</v>
       </c>
       <c r="F6">
-        <v>13.83305644989014</v>
+        <v>13.74234867095947</v>
       </c>
       <c r="G6">
         <v>9200</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.04126070383238245</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.04775245767200374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>41730</v>
       </c>
@@ -583,7 +598,7 @@
         <v>18.21999931335449</v>
       </c>
       <c r="F7">
-        <v>13.87111949920654</v>
+        <v>13.78016471862793</v>
       </c>
       <c r="G7">
         <v>5700</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.002751746662113641</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.04402784610146114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>41760</v>
       </c>
@@ -609,7 +627,7 @@
         <v>17.67000007629395</v>
       </c>
       <c r="F8">
-        <v>13.45240020751953</v>
+        <v>13.3641881942749</v>
       </c>
       <c r="G8">
         <v>2100</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.03018656738682868</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.04636830919011356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>41791</v>
       </c>
@@ -635,7 +656,7 @@
         <v>17.13999938964844</v>
       </c>
       <c r="F9">
-        <v>13.04890251159668</v>
+        <v>12.96333503723145</v>
       </c>
       <c r="G9">
         <v>39300</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.02999437942032357</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.04632112580789181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>41821</v>
       </c>
@@ -661,7 +685,7 @@
         <v>15.35000038146973</v>
       </c>
       <c r="F10">
-        <v>11.68615341186523</v>
+        <v>11.60952186584473</v>
       </c>
       <c r="G10">
         <v>102000</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>-0.1044340181983767</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.05960990157437661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>41852</v>
       </c>
@@ -687,7 +714,7 @@
         <v>14.89000034332275</v>
       </c>
       <c r="F11">
-        <v>11.33594989776611</v>
+        <v>11.26161575317383</v>
       </c>
       <c r="G11">
         <v>42200</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.02996742845050848</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.05653573088908557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>41883</v>
       </c>
@@ -713,7 +743,7 @@
         <v>13.85999965667725</v>
       </c>
       <c r="F12">
-        <v>10.55179500579834</v>
+        <v>10.48260593414307</v>
       </c>
       <c r="G12">
         <v>65300</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.06917398676269337</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.05702611098618975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>41913</v>
       </c>
@@ -739,7 +772,7 @@
         <v>12.65999984741211</v>
       </c>
       <c r="F13">
-        <v>9.63822078704834</v>
+        <v>9.575019836425781</v>
       </c>
       <c r="G13">
         <v>25100</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.08658007496320685</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.05864645845651281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>41944</v>
       </c>
@@ -765,7 +801,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F14">
-        <v>9.257565498352051</v>
+        <v>9.196858406066895</v>
       </c>
       <c r="G14">
         <v>8400</v>
@@ -774,13 +810,16 @@
         <v>-0.03949447125010885</v>
       </c>
       <c r="I14">
-        <v>-0.2298923447251815</v>
+        <v>0.05625049242312889</v>
       </c>
       <c r="J14">
         <v>-0.2298923447251815</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-0.2298923447251815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>41974</v>
       </c>
@@ -797,7 +836,7 @@
         <v>10.31999969482422</v>
       </c>
       <c r="F15">
-        <v>8.021777153015137</v>
+        <v>7.969174861907959</v>
       </c>
       <c r="G15">
         <v>30100</v>
@@ -806,13 +845,16 @@
         <v>-0.1513158039207936</v>
       </c>
       <c r="I15">
-        <v>-0.3476611950757128</v>
+        <v>0.06500225687083533</v>
       </c>
       <c r="J15">
         <v>-0.3476611950757128</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.3476611950757128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>42005</v>
       </c>
@@ -829,7 +871,7 @@
         <v>10.34000015258789</v>
       </c>
       <c r="F16">
-        <v>8.037323951721191</v>
+        <v>7.984619617462158</v>
       </c>
       <c r="G16">
         <v>207500</v>
@@ -838,13 +880,16 @@
         <v>0.001938028910378975</v>
       </c>
       <c r="I16">
-        <v>-0.3468098419189928</v>
+        <v>0.06303909675358231</v>
       </c>
       <c r="J16">
         <v>-0.3468098419189928</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.3468098419189928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>42036</v>
       </c>
@@ -861,7 +906,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F17">
-        <v>8.962314605712891</v>
+        <v>8.903544425964355</v>
       </c>
       <c r="G17">
         <v>9200</v>
@@ -870,13 +915,16 @@
         <v>0.1150869983387253</v>
       </c>
       <c r="I17">
-        <v>-0.3392550585178907</v>
+        <v>0.07108250509209763</v>
       </c>
       <c r="J17">
         <v>-0.3392550585178907</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.3392550585178907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>42064</v>
       </c>
@@ -893,7 +941,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F18">
-        <v>8.962314605712891</v>
+        <v>8.903544425964355</v>
       </c>
       <c r="G18">
         <v>47800</v>
@@ -902,13 +950,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.3654375517579571</v>
+        <v>0.06882527123804429</v>
       </c>
       <c r="J18">
         <v>-0.3654375517579571</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>-0.3654375517579571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>42095</v>
       </c>
@@ -925,7 +976,7 @@
         <v>12.26000022888184</v>
       </c>
       <c r="F19">
-        <v>9.529746055603027</v>
+        <v>9.467255592346191</v>
       </c>
       <c r="G19">
         <v>52200</v>
@@ -934,13 +985,16 @@
         <v>0.0633131407473615</v>
       </c>
       <c r="I19">
-        <v>-0.3271130246478235</v>
+        <v>0.06944206073746421</v>
       </c>
       <c r="J19">
         <v>-0.3271130246478235</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.3271130246478235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>42125</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>11.89000034332275</v>
       </c>
       <c r="F20">
-        <v>9.242145538330078</v>
+        <v>9.181539535522461</v>
       </c>
       <c r="G20">
         <v>43300</v>
@@ -966,13 +1020,16 @@
         <v>-0.03017943545281876</v>
       </c>
       <c r="I20">
-        <v>-0.3271080762883319</v>
+        <v>0.06749793981412959</v>
       </c>
       <c r="J20">
         <v>-0.3271080762883319</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>-0.3271080762883319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>42156</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>11.28999996185303</v>
       </c>
       <c r="F21">
-        <v>8.775761604309082</v>
+        <v>8.71821403503418</v>
       </c>
       <c r="G21">
         <v>115300</v>
@@ -998,13 +1055,16 @@
         <v>-0.05046260421738991</v>
       </c>
       <c r="I21">
-        <v>-0.3413068632504427</v>
+        <v>0.06614350109401376</v>
       </c>
       <c r="J21">
         <v>-0.3413068632504427</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.3413068632504427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>42186</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F22">
-        <v>8.698031425476074</v>
+        <v>8.640994071960449</v>
       </c>
       <c r="G22">
         <v>19100</v>
@@ -1030,13 +1090,16 @@
         <v>-0.008857429743809653</v>
       </c>
       <c r="I22">
-        <v>-0.2710098174400251</v>
+        <v>0.06439596823197873</v>
       </c>
       <c r="J22">
         <v>-0.2710098174400251</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.2710098174400251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>42217</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>10.51000022888184</v>
       </c>
       <c r="F23">
-        <v>8.169464111328125</v>
+        <v>8.11589527130127</v>
       </c>
       <c r="G23">
         <v>4800</v>
@@ -1062,13 +1125,16 @@
         <v>-0.06076848766764409</v>
       </c>
       <c r="I23">
-        <v>-0.2941571533546053</v>
+        <v>0.06355264212349573</v>
       </c>
       <c r="J23">
         <v>-0.2941571533546053</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.2941571533546053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>42248</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F24">
-        <v>7.842996120452881</v>
+        <v>7.791566848754883</v>
       </c>
       <c r="G24">
         <v>12600</v>
@@ -1094,13 +1160,16 @@
         <v>-0.03996194739746728</v>
       </c>
       <c r="I24">
-        <v>-0.2720057429635726</v>
+        <v>0.06220980873365746</v>
       </c>
       <c r="J24">
         <v>-0.2720057429635726</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.2720057429635726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>42278</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>10.78999996185303</v>
       </c>
       <c r="F25">
-        <v>8.387109756469727</v>
+        <v>8.332111358642578</v>
       </c>
       <c r="G25">
         <v>16600</v>
@@ -1126,13 +1195,16 @@
         <v>0.06937559947267191</v>
       </c>
       <c r="I25">
-        <v>-0.14770931343584</v>
+        <v>0.06346820214406634</v>
       </c>
       <c r="J25">
         <v>-0.14770931343584</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.14770931343584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>42309</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="F26">
-        <v>7.920726776123047</v>
+        <v>7.868788719177246</v>
       </c>
       <c r="G26">
         <v>1700</v>
@@ -1158,13 +1230,16 @@
         <v>-0.05560707910945029</v>
       </c>
       <c r="I26">
-        <v>-0.1620066029398893</v>
+        <v>0.06263855146489501</v>
       </c>
       <c r="J26">
         <v>-0.1620066029398893</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.1620066029398893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>42339</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>10.10999965667725</v>
       </c>
       <c r="F27">
-        <v>8.209959983825684</v>
+        <v>8.156124114990234</v>
       </c>
       <c r="G27">
         <v>56600</v>
@@ -1190,13 +1265,16 @@
         <v>-0.007850826987280901</v>
       </c>
       <c r="I27">
-        <v>-0.02034884150745608</v>
+        <v>0.06134233599904972</v>
       </c>
       <c r="J27">
         <v>-0.02034884150745608</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.02034884150745608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>42370</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F28">
-        <v>7.787687301635742</v>
+        <v>7.73661994934082</v>
       </c>
       <c r="G28">
         <v>9900</v>
@@ -1222,13 +1300,16 @@
         <v>-0.05143417623618973</v>
       </c>
       <c r="I28">
-        <v>-0.07253384805920826</v>
+        <v>0.06050677158051199</v>
       </c>
       <c r="J28">
         <v>-0.07253384805920826</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.07253384805920826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>42401</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F29">
-        <v>7.267966270446777</v>
+        <v>7.220306873321533</v>
       </c>
       <c r="G29">
         <v>12800</v>
@@ -1254,13 +1335,16 @@
         <v>-0.06673621826273357</v>
       </c>
       <c r="I29">
-        <v>-0.2237640922339561</v>
+        <v>0.06009222198565809</v>
       </c>
       <c r="J29">
         <v>-0.2237640922339561</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-0.2237640922339561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>42430</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F30">
-        <v>8.234323501586914</v>
+        <v>8.180326461791992</v>
       </c>
       <c r="G30">
         <v>7500</v>
@@ -1286,13 +1370,16 @@
         <v>0.1329609563595426</v>
       </c>
       <c r="I30">
-        <v>-0.1205550235767651</v>
+        <v>0.06559433875432785</v>
       </c>
       <c r="J30">
         <v>-0.1205550235767651</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.1205550235767651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>42461</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>10.28999996185303</v>
       </c>
       <c r="F31">
-        <v>8.356132507324219</v>
+        <v>8.301336288452148</v>
       </c>
       <c r="G31">
         <v>9100</v>
@@ -1318,13 +1405,16 @@
         <v>0.01479286128713486</v>
       </c>
       <c r="I31">
-        <v>-0.1606851737561902</v>
+        <v>0.06462813756798329</v>
       </c>
       <c r="J31">
         <v>-0.1606851737561902</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.1606851737561902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>42491</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="F32">
-        <v>8.201839447021484</v>
+        <v>8.148056983947754</v>
       </c>
       <c r="G32">
         <v>3600</v>
@@ -1350,13 +1440,16 @@
         <v>-0.01846448795798494</v>
       </c>
       <c r="I32">
-        <v>-0.1505466703252254</v>
+        <v>0.06351297706469745</v>
       </c>
       <c r="J32">
         <v>-0.1505466703252254</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.1505466703252254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>42522</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>9.409999847412109</v>
       </c>
       <c r="F33">
-        <v>7.641515254974365</v>
+        <v>7.591407299041748</v>
       </c>
       <c r="G33">
         <v>11900</v>
@@ -1382,13 +1475,16 @@
         <v>-0.06831688197988073</v>
       </c>
       <c r="I33">
-        <v>-0.1665190541003646</v>
+        <v>0.06323547005857291</v>
       </c>
       <c r="J33">
         <v>-0.1665190541003646</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.1665190541003646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>42552</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>10.03999996185303</v>
       </c>
       <c r="F34">
-        <v>8.153115272521973</v>
+        <v>8.099652290344238</v>
       </c>
       <c r="G34">
         <v>37600</v>
@@ -1414,13 +1510,16 @@
         <v>0.06695006638221979</v>
       </c>
       <c r="I34">
-        <v>-0.1027703004159435</v>
+        <v>0.06385684445018328</v>
       </c>
       <c r="J34">
         <v>-0.1027703004159435</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.1027703004159435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>42583</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>10.07999992370605</v>
       </c>
       <c r="F35">
-        <v>8.185599327087402</v>
+        <v>8.131922721862793</v>
       </c>
       <c r="G35">
         <v>1500</v>
@@ -1446,13 +1545,16 @@
         <v>0.003984059960657982</v>
       </c>
       <c r="I35">
-        <v>-0.04091344394019381</v>
+        <v>0.06291332256336629</v>
       </c>
       <c r="J35">
         <v>-0.04091344394019381</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.04091344394019381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>42614</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F36">
-        <v>8.031305313110352</v>
+        <v>7.978642463684082</v>
       </c>
       <c r="G36">
         <v>49400</v>
@@ -1478,13 +1580,16 @@
         <v>-0.01884916486323196</v>
       </c>
       <c r="I36">
-        <v>-0.01982158634693787</v>
+        <v>0.06196526119449611</v>
       </c>
       <c r="J36">
         <v>-0.01982158634693787</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.01982158634693787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>42644</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>9.850000381469727</v>
       </c>
       <c r="F37">
-        <v>7.998824119567871</v>
+        <v>7.946371555328369</v>
       </c>
       <c r="G37">
         <v>4900</v>
@@ -1510,13 +1615,16 @@
         <v>-0.004044485385688912</v>
       </c>
       <c r="I37">
-        <v>-0.08711766299412194</v>
+        <v>0.06106129645702538</v>
       </c>
       <c r="J37">
         <v>-0.08711766299412194</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.08711766299412194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>42675</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F38">
-        <v>7.487223148345947</v>
+        <v>7.438127517700195</v>
       </c>
       <c r="G38">
         <v>1900</v>
@@ -1542,13 +1650,16 @@
         <v>-0.06395940000429878</v>
       </c>
       <c r="I38">
-        <v>-0.09519130061809145</v>
+        <v>0.06081247415334551</v>
       </c>
       <c r="J38">
         <v>-0.09519130061809145</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.09519130061809145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>42705</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>9.310000419616699</v>
       </c>
       <c r="F39">
-        <v>7.885334491729736</v>
+        <v>7.833627700805664</v>
       </c>
       <c r="G39">
         <v>38400</v>
@@ -1574,13 +1685,16 @@
         <v>0.009761404553287889</v>
       </c>
       <c r="I39">
-        <v>-0.07912950190183043</v>
+        <v>0.06007893978643231</v>
       </c>
       <c r="J39">
         <v>-0.07912950190183043</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.07912950190183043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>42736</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F40">
-        <v>7.809106826782227</v>
+        <v>7.757900238037109</v>
       </c>
       <c r="G40">
         <v>53600</v>
@@ -1606,13 +1720,16 @@
         <v>-0.009667040658586368</v>
       </c>
       <c r="I40">
-        <v>-0.03858184355286343</v>
+        <v>0.05926318565388169</v>
       </c>
       <c r="J40">
         <v>-0.03858184355286343</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.03858184355286343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>42767</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F41">
-        <v>8.012381553649902</v>
+        <v>7.959840774536133</v>
       </c>
       <c r="G41">
         <v>18300</v>
@@ -1638,13 +1755,16 @@
         <v>0.02603034318517494</v>
       </c>
       <c r="I41">
-        <v>0.05698326701123269</v>
+        <v>0.05880024965583425</v>
       </c>
       <c r="J41">
         <v>0.05698326701123269</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.05698326701123269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>42795</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>10.26000022888184</v>
       </c>
       <c r="F42">
-        <v>8.689962387084961</v>
+        <v>8.632976531982422</v>
       </c>
       <c r="G42">
         <v>557300</v>
@@ -1670,13 +1790,16 @@
         <v>0.08456661601574034</v>
       </c>
       <c r="I42">
-        <v>0.01183430783985151</v>
+        <v>0.05999073001291761</v>
       </c>
       <c r="J42">
         <v>0.01183430783985151</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.01183430783985151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>42826</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>10.39000034332275</v>
       </c>
       <c r="F43">
-        <v>8.800067901611328</v>
+        <v>8.742362976074219</v>
       </c>
       <c r="G43">
         <v>11100</v>
@@ -1702,13 +1825,16 @@
         <v>0.01267057617357237</v>
       </c>
       <c r="I43">
-        <v>0.009718210091394175</v>
+        <v>0.05933240449984997</v>
       </c>
       <c r="J43">
         <v>0.009718210091394175</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.009718210091394175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>42856</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="F44">
-        <v>9.79102897644043</v>
+        <v>9.726824760437012</v>
       </c>
       <c r="G44">
         <v>33200</v>
@@ -1734,13 +1860,16 @@
         <v>0.112608280811642</v>
       </c>
       <c r="I44">
-        <v>0.144554453762755</v>
+        <v>0.06150885635253452</v>
       </c>
       <c r="J44">
         <v>0.144554453762755</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.144554453762755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>42887</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>11.25</v>
       </c>
       <c r="F45">
-        <v>9.52846622467041</v>
+        <v>9.465984344482422</v>
       </c>
       <c r="G45">
         <v>16700</v>
@@ -1766,13 +1895,16 @@
         <v>-0.02681664432214426</v>
       </c>
       <c r="I45">
-        <v>0.1955366825105653</v>
+        <v>0.06085861554534697</v>
       </c>
       <c r="J45">
         <v>0.1955366825105653</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.1955366825105653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>42917</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>11.76000022888184</v>
       </c>
       <c r="F46">
-        <v>9.960422515869141</v>
+        <v>9.895109176635742</v>
       </c>
       <c r="G46">
         <v>157900</v>
@@ -1798,13 +1930,16 @@
         <v>0.04533335367838531</v>
       </c>
       <c r="I46">
-        <v>0.1713147682832619</v>
+        <v>0.06064359299529102</v>
       </c>
       <c r="J46">
         <v>0.1713147682832619</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.1713147682832619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>42948</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>11.89999961853027</v>
       </c>
       <c r="F47">
-        <v>10.07900047302246</v>
+        <v>10.01290702819824</v>
       </c>
       <c r="G47">
         <v>16300</v>
@@ -1830,13 +1965,16 @@
         <v>0.01190470977242053</v>
       </c>
       <c r="I47">
-        <v>0.1805555266467771</v>
+        <v>0.06000271356174516</v>
       </c>
       <c r="J47">
         <v>0.1805555266467771</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.1805555266467771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>42979</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>12.52999973297119</v>
       </c>
       <c r="F48">
-        <v>10.61259365081787</v>
+        <v>10.54300212860107</v>
       </c>
       <c r="G48">
         <v>11300</v>
@@ -1862,13 +2000,16 @@
         <v>0.05294118778456958</v>
       </c>
       <c r="I48">
-        <v>0.2669362283117449</v>
+        <v>0.05993389863653361</v>
       </c>
       <c r="J48">
         <v>0.2669362283117449</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.2669362283117449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>43009</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>12.47999954223633</v>
       </c>
       <c r="F49">
-        <v>10.57024383544922</v>
+        <v>10.50093078613281</v>
       </c>
       <c r="G49">
         <v>36800</v>
@@ -1894,13 +2035,16 @@
         <v>-0.003990438292132858</v>
       </c>
       <c r="I49">
-        <v>0.2670049806002319</v>
+        <v>0.05927895907459151</v>
       </c>
       <c r="J49">
         <v>0.2670049806002319</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.2670049806002319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>43040</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F50">
-        <v>10.29921245574951</v>
+        <v>10.23167610168457</v>
       </c>
       <c r="G50">
         <v>3500</v>
@@ -1926,13 +2070,16 @@
         <v>-0.02564100212834441</v>
       </c>
       <c r="I50">
-        <v>0.3188719626068655</v>
+        <v>0.05873371273168583</v>
       </c>
       <c r="J50">
         <v>0.3188719626068655</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.3188719626068655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>43070</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>11.89000034332275</v>
       </c>
       <c r="F51">
-        <v>10.37796306610107</v>
+        <v>10.30990886688232</v>
       </c>
       <c r="G51">
         <v>11800</v>
@@ -1958,13 +2105,16 @@
         <v>-0.02220390686491802</v>
       </c>
       <c r="I51">
-        <v>0.2771213541805915</v>
+        <v>0.05817848983738103</v>
       </c>
       <c r="J51">
         <v>0.2771213541805915</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.2771213541805915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>43101</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>12.67000007629395</v>
       </c>
       <c r="F52">
-        <v>11.05877017974854</v>
+        <v>10.98625373840332</v>
       </c>
       <c r="G52">
         <v>11900</v>
@@ -1990,13 +2140,16 @@
         <v>0.06560132131612817</v>
       </c>
       <c r="I52">
-        <v>0.3741865194519041</v>
+        <v>0.05841986340305969</v>
       </c>
       <c r="J52">
         <v>0.3741865194519041</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.3741865194519041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>43132</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F53">
-        <v>10.51761531829834</v>
+        <v>10.44864845275879</v>
       </c>
       <c r="G53">
         <v>82100</v>
@@ -2022,13 +2175,16 @@
         <v>-0.04893448159634395</v>
       </c>
       <c r="I53">
-        <v>0.2737843702054805</v>
+        <v>0.05819356942517363</v>
       </c>
       <c r="J53">
         <v>0.2737843702054805</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.2737843702054805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>43160</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>12.26000022888184</v>
       </c>
       <c r="F54">
-        <v>10.70090961456299</v>
+        <v>10.63074016571045</v>
       </c>
       <c r="G54">
         <v>127100</v>
@@ -2054,13 +2210,16 @@
         <v>0.01742738878198846</v>
       </c>
       <c r="I54">
-        <v>0.194931769530571</v>
+        <v>0.05769417552318516</v>
       </c>
       <c r="J54">
         <v>0.194931769530571</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.194931769530571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>43191</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>12.52000045776367</v>
       </c>
       <c r="F55">
-        <v>10.92784690856934</v>
+        <v>10.85618877410889</v>
       </c>
       <c r="G55">
         <v>11300</v>
@@ -2086,13 +2245,16 @@
         <v>0.02120719608710386</v>
       </c>
       <c r="I55">
-        <v>0.2050048165599712</v>
+        <v>0.05723521656301046</v>
       </c>
       <c r="J55">
         <v>0.2050048165599712</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.2050048165599712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>43221</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>12.52999973297119</v>
       </c>
       <c r="F56">
-        <v>10.93657398223877</v>
+        <v>10.86485767364502</v>
       </c>
       <c r="G56">
         <v>16700</v>
@@ -2118,13 +2280,16 @@
         <v>0.0007986641247539339</v>
       </c>
       <c r="I56">
-        <v>0.08390997215782581</v>
+        <v>0.0566947648032852</v>
       </c>
       <c r="J56">
         <v>0.08390997215782581</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.08390997215782581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>43252</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="F57">
-        <v>11.07622528076172</v>
+        <v>11.00359439849854</v>
       </c>
       <c r="G57">
         <v>9400</v>
@@ -2150,13 +2315,16 @@
         <v>0.01276934164580146</v>
       </c>
       <c r="I57">
-        <v>0.1279999627007378</v>
+        <v>0.05620607469981867</v>
       </c>
       <c r="J57">
         <v>0.1279999627007378</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.1279999627007378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>43282</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>12.94999980926514</v>
       </c>
       <c r="F58">
-        <v>11.30316352844238</v>
+        <v>11.22904491424561</v>
       </c>
       <c r="G58">
         <v>25200</v>
@@ -2182,13 +2350,16 @@
         <v>0.02048859239394729</v>
       </c>
       <c r="I58">
-        <v>0.1011904385393407</v>
+        <v>0.05577682382844088</v>
       </c>
       <c r="J58">
         <v>0.1011904385393407</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.1011904385393407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>43313</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>12.40999984741211</v>
       </c>
       <c r="F59">
-        <v>10.83183479309082</v>
+        <v>10.76080513000488</v>
       </c>
       <c r="G59">
         <v>2100</v>
@@ -2214,13 +2385,16 @@
         <v>-0.04169883936729346</v>
       </c>
       <c r="I59">
-        <v>0.04285716346475188</v>
+        <v>0.05552599554582524</v>
       </c>
       <c r="J59">
         <v>0.04285716346475188</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0.04285716346475188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>43344</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F60">
-        <v>10.61362648010254</v>
+        <v>10.54402828216553</v>
       </c>
       <c r="G60">
         <v>40500</v>
@@ -2246,13 +2420,16 @@
         <v>-0.02014504456679211</v>
       </c>
       <c r="I60">
-        <v>-0.02952912158373566</v>
+        <v>0.05508438960487702</v>
       </c>
       <c r="J60">
         <v>-0.02952912158373566</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.02952912158373566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>43374</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F61">
-        <v>9.697153091430664</v>
+        <v>9.633565902709961</v>
       </c>
       <c r="G61">
         <v>7600</v>
@@ -2278,13 +2455,16 @@
         <v>-0.08634870097949254</v>
       </c>
       <c r="I61">
-        <v>-0.109775635882242</v>
+        <v>0.05567498299634482</v>
       </c>
       <c r="J61">
         <v>-0.109775635882242</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.109775635882242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>43405</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F62">
-        <v>9.513859748840332</v>
+        <v>9.451472282409668</v>
       </c>
       <c r="G62">
         <v>5800</v>
@@ -2310,13 +2490,16 @@
         <v>-0.01890189420669874</v>
       </c>
       <c r="I62">
-        <v>-0.1036184411753911</v>
+        <v>0.05523280288082828</v>
       </c>
       <c r="J62">
         <v>-0.1036184411753911</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.1036184411753911</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>43435</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>10.07999992370605</v>
       </c>
       <c r="F63">
-        <v>9.209829330444336</v>
+        <v>9.14943790435791</v>
       </c>
       <c r="G63">
         <v>18800</v>
@@ -2342,13 +2525,16 @@
         <v>-0.07522933243320473</v>
       </c>
       <c r="I63">
-        <v>-0.1522287945629176</v>
+        <v>0.05551088350457451</v>
       </c>
       <c r="J63">
         <v>-0.1522287945629176</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1522287945629176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>43466</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>10.78999996185303</v>
       </c>
       <c r="F64">
-        <v>9.858537673950195</v>
+        <v>9.793891906738281</v>
       </c>
       <c r="G64">
         <v>5000</v>
@@ -2374,13 +2560,16 @@
         <v>0.07043651225405267</v>
       </c>
       <c r="I64">
-        <v>-0.1483820128745279</v>
+        <v>0.05589924686874512</v>
       </c>
       <c r="J64">
         <v>-0.1483820128745279</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1483820128745279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>43497</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="F65">
-        <v>9.876811981201172</v>
+        <v>9.812045097351074</v>
       </c>
       <c r="G65">
         <v>700</v>
@@ -2406,13 +2595,16 @@
         <v>0.001853610549989115</v>
       </c>
       <c r="I65">
-        <v>-0.1029045436921726</v>
+        <v>0.05545255099709247</v>
       </c>
       <c r="J65">
         <v>-0.1029045436921726</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1029045436921726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>43525</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>10.81999969482422</v>
       </c>
       <c r="F66">
-        <v>9.885948181152344</v>
+        <v>9.821122169494629</v>
       </c>
       <c r="G66">
         <v>146100</v>
@@ -2438,13 +2630,16 @@
         <v>0.0009250022959641502</v>
       </c>
       <c r="I66">
-        <v>-0.1174551800305269</v>
+        <v>0.05501484688602287</v>
       </c>
       <c r="J66">
         <v>-0.1174551800305269</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1174551800305269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>43556</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F67">
-        <v>10.12350177764893</v>
+        <v>10.05712032318115</v>
       </c>
       <c r="G67">
         <v>10300</v>
@@ -2470,13 +2665,16 @@
         <v>0.02402959669270666</v>
       </c>
       <c r="I67">
-        <v>-0.1150160128919701</v>
+        <v>0.05469713745691711</v>
       </c>
       <c r="J67">
         <v>-0.1150160128919701</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.1150160128919701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>43586</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>10.5</v>
       </c>
       <c r="F68">
-        <v>9.593571662902832</v>
+        <v>9.530662536621094</v>
       </c>
       <c r="G68">
         <v>2500</v>
@@ -2502,13 +2700,16 @@
         <v>-0.05234656387182135</v>
       </c>
       <c r="I68">
-        <v>-0.162011155325845</v>
+        <v>0.0546005411433883</v>
       </c>
       <c r="J68">
         <v>-0.162011155325845</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.162011155325845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>43617</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>10.51000022888184</v>
       </c>
       <c r="F69">
-        <v>9.888918876647949</v>
+        <v>9.82407283782959</v>
       </c>
       <c r="G69">
         <v>3200</v>
@@ -2534,13 +2735,16 @@
         <v>0.0009524027506511157</v>
       </c>
       <c r="I69">
-        <v>-0.1717887646640582</v>
+        <v>0.05418971551038194</v>
       </c>
       <c r="J69">
         <v>-0.1717887646640582</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.1717887646640582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>43647</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>10.21000003814697</v>
       </c>
       <c r="F70">
-        <v>9.606646537780762</v>
+        <v>9.543652534484863</v>
       </c>
       <c r="G70">
         <v>2200</v>
@@ -2566,13 +2770,16 @@
         <v>-0.02854426110386299</v>
       </c>
       <c r="I70">
-        <v>-0.2115829970250516</v>
+        <v>0.05386204314455413</v>
       </c>
       <c r="J70">
         <v>-0.2115829970250516</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2115829970250516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>43678</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>9.880000114440918</v>
       </c>
       <c r="F71">
-        <v>9.296149253845215</v>
+        <v>9.235189437866211</v>
       </c>
       <c r="G71">
         <v>5600</v>
@@ -2598,13 +2805,16 @@
         <v>-0.03232124607963727</v>
       </c>
       <c r="I71">
-        <v>-0.203867829498707</v>
+        <v>0.05356587735156325</v>
       </c>
       <c r="J71">
         <v>-0.203867829498707</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.203867829498707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>43709</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>10.11999988555908</v>
       </c>
       <c r="F72">
-        <v>9.521965980529785</v>
+        <v>9.459525108337402</v>
       </c>
       <c r="G72">
         <v>4500</v>
@@ -2630,13 +2840,16 @@
         <v>0.02429147452816038</v>
       </c>
       <c r="I72">
-        <v>-0.1677631568628004</v>
+        <v>0.05329427025761248</v>
       </c>
       <c r="J72">
         <v>-0.1677631568628004</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.1677631568628004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>43739</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>10.67000007629395</v>
       </c>
       <c r="F73">
-        <v>10.03946495056152</v>
+        <v>9.973631858825684</v>
       </c>
       <c r="G73">
         <v>5700</v>
@@ -2662,13 +2875,16 @@
         <v>0.05434784554886174</v>
       </c>
       <c r="I73">
-        <v>-0.03960392385060563</v>
+        <v>0.05337794984482305</v>
       </c>
       <c r="J73">
         <v>-0.03960392385060563</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.03960392385060563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>43770</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>10.77000045776367</v>
       </c>
       <c r="F74">
-        <v>10.13355445861816</v>
+        <v>10.06710433959961</v>
       </c>
       <c r="G74">
         <v>2300</v>
@@ -2694,13 +2910,16 @@
         <v>0.009372106912342248</v>
       </c>
       <c r="I74">
-        <v>-0.01192652892809276</v>
+        <v>0.05302449623429915</v>
       </c>
       <c r="J74">
         <v>-0.01192652892809276</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.01192652892809276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>43800</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F75">
-        <v>10.53454780578613</v>
+        <v>10.46546936035156</v>
       </c>
       <c r="G75">
         <v>5200</v>
@@ -2726,13 +2945,16 @@
         <v>0.03249762422647895</v>
       </c>
       <c r="I75">
-        <v>0.1031746001710938</v>
+        <v>0.05282716387391517</v>
       </c>
       <c r="J75">
         <v>0.1031746001710938</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.1031746001710938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>43831</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>11.02999973297119</v>
       </c>
       <c r="F76">
-        <v>10.44928550720215</v>
+        <v>10.38076591491699</v>
       </c>
       <c r="G76">
         <v>7300</v>
@@ -2758,13 +2980,16 @@
         <v>-0.008093538985083026</v>
       </c>
       <c r="I76">
-        <v>0.02224279628977377</v>
+        <v>0.05246690463711633</v>
       </c>
       <c r="J76">
         <v>0.02224279628977377</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.02224279628977377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>43862</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F77">
-        <v>9.558775901794434</v>
+        <v>9.496094703674316</v>
       </c>
       <c r="G77">
         <v>12000</v>
@@ -2790,13 +3015,16 @@
         <v>-0.08522208550680443</v>
       </c>
       <c r="I77">
-        <v>-0.06660501749123326</v>
+        <v>0.05295913041154553</v>
       </c>
       <c r="J77">
         <v>-0.06660501749123326</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.06660501749123326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>43891</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>8.229999542236328</v>
       </c>
       <c r="F78">
-        <v>7.796700954437256</v>
+        <v>7.745575428009033</v>
       </c>
       <c r="G78">
         <v>7500</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1843409893184698</v>
       </c>
       <c r="I78">
-        <v>-0.2393715550497497</v>
+        <v>0.05650232009639176</v>
       </c>
       <c r="J78">
         <v>-0.2393715550497497</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.2393715550497497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>43922</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F79">
-        <v>8.317744255065918</v>
+        <v>8.263202667236328</v>
       </c>
       <c r="G79">
         <v>8300</v>
@@ -2854,13 +3085,16 @@
         <v>0.06682870246981953</v>
       </c>
       <c r="I79">
-        <v>-0.2075812460805104</v>
+        <v>0.05675532585760121</v>
       </c>
       <c r="J79">
         <v>-0.2075812460805104</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.2075812460805104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>43952</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F80">
-        <v>8.857736587524414</v>
+        <v>8.799652099609375</v>
       </c>
       <c r="G80">
         <v>13000</v>
@@ -2886,13 +3120,16 @@
         <v>0.0649203491838426</v>
       </c>
       <c r="I80">
-        <v>-0.1095237731933594</v>
+        <v>0.05695413470738892</v>
       </c>
       <c r="J80">
         <v>-0.1095237731933594</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1095237731933594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>43983</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>9.270000457763672</v>
       </c>
       <c r="F81">
-        <v>8.974324226379395</v>
+        <v>8.915475845336914</v>
       </c>
       <c r="G81">
         <v>29900</v>
@@ -2918,13 +3155,16 @@
         <v>-0.008556141223758917</v>
       </c>
       <c r="I81">
-        <v>-0.1179828491069489</v>
+        <v>0.05658922786668701</v>
       </c>
       <c r="J81">
         <v>-0.1179828491069489</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1179828491069489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>44013</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>9.5</v>
       </c>
       <c r="F82">
-        <v>9.196987152099609</v>
+        <v>9.136677742004395</v>
       </c>
       <c r="G82">
         <v>7000</v>
@@ -2950,13 +3190,16 @@
         <v>0.02481116837957686</v>
       </c>
       <c r="I82">
-        <v>-0.06953967046956366</v>
+        <v>0.05632935902491575</v>
       </c>
       <c r="J82">
         <v>-0.06953967046956366</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.06953967046956366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>44044</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.729999542236328</v>
       </c>
       <c r="F83">
-        <v>9.419651031494141</v>
+        <v>9.357882499694824</v>
       </c>
       <c r="G83">
         <v>700</v>
@@ -2982,13 +3225,16 @@
         <v>0.02421047813013977</v>
       </c>
       <c r="I83">
-        <v>-0.01518224397440482</v>
+        <v>0.05606852568768247</v>
       </c>
       <c r="J83">
         <v>-0.01518224397440482</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.01518224397440482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>44075</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>8.979999542236328</v>
       </c>
       <c r="F84">
-        <v>8.693572998046875</v>
+        <v>8.636565208435059</v>
       </c>
       <c r="G84">
         <v>34400</v>
@@ -3014,13 +3260,16 @@
         <v>-0.07708119581551609</v>
       </c>
       <c r="I84">
-        <v>-0.1126482565429173</v>
+        <v>0.05629676513039018</v>
       </c>
       <c r="J84">
         <v>-0.1126482565429173</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1126482565429173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F85">
-        <v>8.190158843994141</v>
+        <v>8.136453628540039</v>
       </c>
       <c r="G85">
         <v>500</v>
@@ -3046,13 +3295,16 @@
         <v>-0.05790640652525669</v>
       </c>
       <c r="I85">
-        <v>-0.2071227762272502</v>
+        <v>0.05624998225157479</v>
       </c>
       <c r="J85">
         <v>-0.2071227762272502</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.2071227762272502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>44136</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>10.17000007629395</v>
       </c>
       <c r="F86">
-        <v>9.845616340637207</v>
+        <v>9.781055450439453</v>
       </c>
       <c r="G86">
         <v>21000</v>
@@ -3078,13 +3330,16 @@
         <v>0.2021276631721529</v>
       </c>
       <c r="I86">
-        <v>-0.05571033945845472</v>
+        <v>0.06034175568886718</v>
       </c>
       <c r="J86">
         <v>-0.05571033945845472</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.05571033945845472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>44166</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>10.71192741394043</v>
+        <v>10.64168548583984</v>
       </c>
       <c r="G87">
         <v>2600</v>
@@ -3110,13 +3365,16 @@
         <v>0.08161257792325549</v>
       </c>
       <c r="I87">
-        <v>-0.01079135672608411</v>
+        <v>0.06068652467089207</v>
       </c>
       <c r="J87">
         <v>-0.01079135672608411</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.01079135672608411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>44197</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>10.64999961853027</v>
       </c>
       <c r="F88">
-        <v>10.37109279632568</v>
+        <v>10.30308532714844</v>
       </c>
       <c r="G88">
         <v>1900</v>
@@ -3142,13 +3400,16 @@
         <v>-0.03181821649724792</v>
       </c>
       <c r="I88">
-        <v>-0.03445150712968836</v>
+        <v>0.06041169993060207</v>
       </c>
       <c r="J88">
         <v>-0.03445150712968836</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.03445150712968836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>44228</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="F89">
-        <v>10.517165184021</v>
+        <v>10.44820022583008</v>
       </c>
       <c r="G89">
         <v>34500</v>
@@ -3174,13 +3435,16 @@
         <v>0.01408456127487545</v>
       </c>
       <c r="I89">
-        <v>0.07036670241921361</v>
+        <v>0.06008660507234333</v>
       </c>
       <c r="J89">
         <v>0.07036670241921361</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.07036670241921361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>44256</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F90">
-        <v>10.78983211517334</v>
+        <v>10.71907901763916</v>
       </c>
       <c r="G90">
         <v>6900</v>
@@ -3206,13 +3470,16 @@
         <v>0.02592590074316825</v>
       </c>
       <c r="I90">
-        <v>0.3462941117850049</v>
+        <v>0.05981747177809556</v>
       </c>
       <c r="J90">
         <v>0.3462941117850049</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.3462941117850049</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>44287</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="F91">
-        <v>11.01380920410156</v>
+        <v>10.94158744812012</v>
       </c>
       <c r="G91">
         <v>19000</v>
@@ -3238,13 +3505,16 @@
         <v>0.02075816764389593</v>
       </c>
       <c r="I91">
-        <v>0.288154984463689</v>
+        <v>0.05952660236926249</v>
       </c>
       <c r="J91">
         <v>0.288154984463689</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.288154984463689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>44317</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>12.31999969482422</v>
       </c>
       <c r="F92">
-        <v>11.99735832214355</v>
+        <v>11.91868591308594</v>
       </c>
       <c r="G92">
         <v>1200</v>
@@ -3270,13 +3540,16 @@
         <v>0.08930143569718352</v>
       </c>
       <c r="I92">
-        <v>0.3176469724258597</v>
+        <v>0.05996835157447932</v>
       </c>
       <c r="J92">
         <v>0.3176469724258597</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.3176469724258597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>44348</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F93">
-        <v>11.07999992370605</v>
+        <v>11.00734424591064</v>
       </c>
       <c r="G93">
         <v>4900</v>
@@ -3302,13 +3575,16 @@
         <v>-0.1006493345644403</v>
       </c>
       <c r="I93">
-        <v>0.1952534386798761</v>
+        <v>0.06054271613267478</v>
       </c>
       <c r="J93">
         <v>0.1952534386798761</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.1952534386798761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>44378</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>10.77999973297119</v>
       </c>
       <c r="F94">
-        <v>10.77999973297119</v>
+        <v>10.70931053161621</v>
       </c>
       <c r="G94">
         <v>200</v>
@@ -3334,13 +3610,16 @@
         <v>-0.0270758296751431</v>
       </c>
       <c r="I94">
-        <v>0.1347368139969676</v>
+        <v>0.06026555813680717</v>
       </c>
       <c r="J94">
         <v>0.1347368139969676</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.1347368139969676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>44409</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>11.40999984741211</v>
       </c>
       <c r="F95">
-        <v>11.40999984741211</v>
+        <v>11.33518028259277</v>
       </c>
       <c r="G95">
         <v>1900</v>
@@ -3366,13 +3645,16 @@
         <v>0.05844157050524124</v>
       </c>
       <c r="I95">
-        <v>0.1726619099911748</v>
+        <v>0.06026763362265112</v>
       </c>
       <c r="J95">
         <v>0.1726619099911748</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.1726619099911748</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>44440</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>11.02999973297119</v>
       </c>
       <c r="F96">
-        <v>11.02999973297119</v>
+        <v>10.95767116546631</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -3398,13 +3680,16 @@
         <v>-0.03330412966895047</v>
       </c>
       <c r="I96">
-        <v>0.228285110828006</v>
+        <v>0.060031368645456</v>
       </c>
       <c r="J96">
         <v>0.228285110828006</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.228285110828006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>44470</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>11.68000030517578</v>
       </c>
       <c r="F97">
-        <v>11.68000030517578</v>
+        <v>11.60340976715088</v>
       </c>
       <c r="G97">
         <v>1400</v>
@@ -3430,13 +3715,16 @@
         <v>0.05893024369362299</v>
       </c>
       <c r="I97">
-        <v>0.3806146870578617</v>
+        <v>0.06003780751741485</v>
       </c>
       <c r="J97">
         <v>0.3806146870578617</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.3806146870578617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>44501</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>10.85999965667725</v>
       </c>
       <c r="F98">
-        <v>10.85999965667725</v>
+        <v>10.78878593444824</v>
       </c>
       <c r="G98">
         <v>200</v>
@@ -3462,42 +3750,83 @@
         <v>-0.070205533139855</v>
       </c>
       <c r="I98">
-        <v>0.06784656590039506</v>
+        <v>0.06013263828973828</v>
       </c>
       <c r="J98">
         <v>0.06784656590039506</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.06784656590039506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>44531</v>
       </c>
       <c r="B99">
-        <v>10.88000011444092</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C99">
-        <v>10.88000011444092</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="D99">
-        <v>10.88000011444092</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="E99">
-        <v>10.88000011444092</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="F99">
-        <v>10.88000011444092</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="G99">
-        <v>1130</v>
+        <v>1200</v>
       </c>
       <c r="H99">
-        <v>0.001841662835723401</v>
+        <v>0.005524900691852963</v>
       </c>
       <c r="I99">
-        <v>-0.01090908050537109</v>
+        <v>0.05982363771059424</v>
       </c>
       <c r="J99">
-        <v>-0.01090908050537109</v>
+        <v>-0.007272720336914062</v>
+      </c>
+      <c r="K99">
+        <v>-0.007272720336914062</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>10.98999977111816</v>
+      </c>
+      <c r="D100">
+        <v>10.97999954223633</v>
+      </c>
+      <c r="E100">
+        <v>10.98989963531494</v>
+      </c>
+      <c r="F100">
+        <v>10.98989963531494</v>
+      </c>
+      <c r="G100">
+        <v>3035</v>
+      </c>
+      <c r="H100">
+        <v>0.00640105847368444</v>
+      </c>
+      <c r="I100">
+        <v>0.05952055102645936</v>
+      </c>
+      <c r="J100">
+        <v>0.03191549567694496</v>
+      </c>
+      <c r="K100">
+        <v>0.03191549567694496</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/PGAL.xlsx
+++ b/etf_dfs/PGAL.xlsx
@@ -508,7 +508,7 @@
         <v>15.78999996185303</v>
       </c>
       <c r="F2" t="n">
-        <v>11.94230079650879</v>
+        <v>11.94230365753174</v>
       </c>
       <c r="G2" t="n">
         <v>17200</v>
@@ -535,7 +535,7 @@
         <v>15.81999969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>11.96499347686768</v>
+        <v>11.96499252319336</v>
       </c>
       <c r="G3" t="n">
         <v>1100</v>
@@ -564,7 +564,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="F4" t="n">
-        <v>11.97255611419678</v>
+        <v>11.97255802154541</v>
       </c>
       <c r="G4" t="n">
         <v>4700</v>
@@ -595,7 +595,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F5" t="n">
-        <v>13.19779682159424</v>
+        <v>13.19779777526855</v>
       </c>
       <c r="G5" t="n">
         <v>30700</v>
@@ -626,7 +626,7 @@
         <v>18.17000007629395</v>
       </c>
       <c r="F6" t="n">
-        <v>13.74234676361084</v>
+        <v>13.74234771728516</v>
       </c>
       <c r="G6" t="n">
         <v>9200</v>
@@ -688,7 +688,7 @@
         <v>17.67000007629395</v>
       </c>
       <c r="F8" t="n">
-        <v>13.36418628692627</v>
+        <v>13.36418724060059</v>
       </c>
       <c r="G8" t="n">
         <v>2100</v>
@@ -750,7 +750,7 @@
         <v>15.35000038146973</v>
       </c>
       <c r="F10" t="n">
-        <v>11.60952281951904</v>
+        <v>11.60952186584473</v>
       </c>
       <c r="G10" t="n">
         <v>102000</v>
@@ -812,7 +812,7 @@
         <v>13.85999965667725</v>
       </c>
       <c r="F12" t="n">
-        <v>10.4826021194458</v>
+        <v>10.48260498046875</v>
       </c>
       <c r="G12" t="n">
         <v>65300</v>
@@ -843,7 +843,7 @@
         <v>12.65999984741211</v>
       </c>
       <c r="F13" t="n">
-        <v>9.575018882751465</v>
+        <v>9.575019836425781</v>
       </c>
       <c r="G13" t="n">
         <v>25100</v>
@@ -874,7 +874,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F14" t="n">
-        <v>9.196858406066895</v>
+        <v>9.196859359741211</v>
       </c>
       <c r="G14" t="n">
         <v>8400</v>
@@ -909,7 +909,7 @@
         <v>10.31999969482422</v>
       </c>
       <c r="F15" t="n">
-        <v>7.969175338745117</v>
+        <v>7.969173908233643</v>
       </c>
       <c r="G15" t="n">
         <v>30100</v>
@@ -944,7 +944,7 @@
         <v>10.34000015258789</v>
       </c>
       <c r="F16" t="n">
-        <v>7.984618186950684</v>
+        <v>7.984618663787842</v>
       </c>
       <c r="G16" t="n">
         <v>207500</v>
@@ -979,7 +979,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F17" t="n">
-        <v>8.903543472290039</v>
+        <v>8.903544425964355</v>
       </c>
       <c r="G17" t="n">
         <v>9200</v>
@@ -1014,7 +1014,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F18" t="n">
-        <v>8.903543472290039</v>
+        <v>8.903544425964355</v>
       </c>
       <c r="G18" t="n">
         <v>47800</v>
@@ -1049,7 +1049,7 @@
         <v>12.26000022888184</v>
       </c>
       <c r="F19" t="n">
-        <v>9.467256546020508</v>
+        <v>9.467255592346191</v>
       </c>
       <c r="G19" t="n">
         <v>52200</v>
@@ -1154,7 +1154,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F22" t="n">
-        <v>8.640993118286133</v>
+        <v>8.640995025634766</v>
       </c>
       <c r="G22" t="n">
         <v>19100</v>
@@ -1189,7 +1189,7 @@
         <v>10.51000022888184</v>
       </c>
       <c r="F23" t="n">
-        <v>8.115894317626953</v>
+        <v>8.115893363952637</v>
       </c>
       <c r="G23" t="n">
         <v>4800</v>
@@ -1224,7 +1224,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F24" t="n">
-        <v>7.791567802429199</v>
+        <v>7.791568756103516</v>
       </c>
       <c r="G24" t="n">
         <v>12600</v>
@@ -1294,7 +1294,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="F26" t="n">
-        <v>7.868788242340088</v>
+        <v>7.86878776550293</v>
       </c>
       <c r="G26" t="n">
         <v>1700</v>
@@ -1329,7 +1329,7 @@
         <v>10.10999965667725</v>
       </c>
       <c r="F27" t="n">
-        <v>8.156123161315918</v>
+        <v>8.156124114990234</v>
       </c>
       <c r="G27" t="n">
         <v>56600</v>
@@ -1364,7 +1364,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F28" t="n">
-        <v>7.73661994934082</v>
+        <v>7.736620903015137</v>
       </c>
       <c r="G28" t="n">
         <v>9900</v>
@@ -1399,7 +1399,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F29" t="n">
-        <v>7.220307350158691</v>
+        <v>7.220306873321533</v>
       </c>
       <c r="G29" t="n">
         <v>12800</v>
@@ -1434,7 +1434,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F30" t="n">
-        <v>8.180325508117676</v>
+        <v>8.180326461791992</v>
       </c>
       <c r="G30" t="n">
         <v>7500</v>
@@ -1469,7 +1469,7 @@
         <v>10.28999996185303</v>
       </c>
       <c r="F31" t="n">
-        <v>8.301336288452148</v>
+        <v>8.301337242126465</v>
       </c>
       <c r="G31" t="n">
         <v>9100</v>
@@ -1504,7 +1504,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="F32" t="n">
-        <v>8.148056030273438</v>
+        <v>8.148056983947754</v>
       </c>
       <c r="G32" t="n">
         <v>3600</v>
@@ -1539,7 +1539,7 @@
         <v>9.409999847412109</v>
       </c>
       <c r="F33" t="n">
-        <v>7.591407299041748</v>
+        <v>7.59140682220459</v>
       </c>
       <c r="G33" t="n">
         <v>11900</v>
@@ -1644,7 +1644,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F36" t="n">
-        <v>7.978642463684082</v>
+        <v>7.978641510009766</v>
       </c>
       <c r="G36" t="n">
         <v>49400</v>
@@ -1714,7 +1714,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F38" t="n">
-        <v>7.438127517700195</v>
+        <v>7.438127994537354</v>
       </c>
       <c r="G38" t="n">
         <v>1900</v>
@@ -1749,7 +1749,7 @@
         <v>9.310000419616699</v>
       </c>
       <c r="F39" t="n">
-        <v>7.833627223968506</v>
+        <v>7.833629608154297</v>
       </c>
       <c r="G39" t="n">
         <v>38400</v>
@@ -1784,7 +1784,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F40" t="n">
-        <v>7.757900238037109</v>
+        <v>7.757900714874268</v>
       </c>
       <c r="G40" t="n">
         <v>53600</v>
@@ -1819,7 +1819,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F41" t="n">
-        <v>7.959840774536133</v>
+        <v>7.959839344024658</v>
       </c>
       <c r="G41" t="n">
         <v>18300</v>
@@ -1854,7 +1854,7 @@
         <v>10.26000022888184</v>
       </c>
       <c r="F42" t="n">
-        <v>8.632977485656738</v>
+        <v>8.632976531982422</v>
       </c>
       <c r="G42" t="n">
         <v>557300</v>
@@ -1889,7 +1889,7 @@
         <v>10.39000034332275</v>
       </c>
       <c r="F43" t="n">
-        <v>8.742363929748535</v>
+        <v>8.742361068725586</v>
       </c>
       <c r="G43" t="n">
         <v>11100</v>
@@ -1959,7 +1959,7 @@
         <v>11.25</v>
       </c>
       <c r="F45" t="n">
-        <v>9.465983390808105</v>
+        <v>9.465984344482422</v>
       </c>
       <c r="G45" t="n">
         <v>16700</v>
@@ -2029,7 +2029,7 @@
         <v>11.89999961853027</v>
       </c>
       <c r="F47" t="n">
-        <v>10.01290798187256</v>
+        <v>10.01290702819824</v>
       </c>
       <c r="G47" t="n">
         <v>16300</v>
@@ -2064,7 +2064,7 @@
         <v>12.52999973297119</v>
       </c>
       <c r="F48" t="n">
-        <v>10.54300308227539</v>
+        <v>10.54300117492676</v>
       </c>
       <c r="G48" t="n">
         <v>11300</v>
@@ -2099,7 +2099,7 @@
         <v>12.47999954223633</v>
       </c>
       <c r="F49" t="n">
-        <v>10.50093269348145</v>
+        <v>10.50093173980713</v>
       </c>
       <c r="G49" t="n">
         <v>36800</v>
@@ -2134,7 +2134,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>10.2316780090332</v>
+        <v>10.23167705535889</v>
       </c>
       <c r="G50" t="n">
         <v>3500</v>
@@ -2239,7 +2239,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F53" t="n">
-        <v>10.44864654541016</v>
+        <v>10.44864749908447</v>
       </c>
       <c r="G53" t="n">
         <v>82100</v>
@@ -2344,7 +2344,7 @@
         <v>12.52999973297119</v>
       </c>
       <c r="F56" t="n">
-        <v>10.86485862731934</v>
+        <v>10.86485767364502</v>
       </c>
       <c r="G56" t="n">
         <v>16700</v>
@@ -2379,7 +2379,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="F57" t="n">
-        <v>11.00359535217285</v>
+        <v>11.00359630584717</v>
       </c>
       <c r="G57" t="n">
         <v>9400</v>
@@ -2414,7 +2414,7 @@
         <v>12.94999980926514</v>
       </c>
       <c r="F58" t="n">
-        <v>11.22904300689697</v>
+        <v>11.22904396057129</v>
       </c>
       <c r="G58" t="n">
         <v>25200</v>
@@ -2449,7 +2449,7 @@
         <v>12.40999984741211</v>
       </c>
       <c r="F59" t="n">
-        <v>10.7608060836792</v>
+        <v>10.76080703735352</v>
       </c>
       <c r="G59" t="n">
         <v>2100</v>
@@ -2484,7 +2484,7 @@
         <v>12.15999984741211</v>
       </c>
       <c r="F60" t="n">
-        <v>10.54402923583984</v>
+        <v>10.54402828216553</v>
       </c>
       <c r="G60" t="n">
         <v>40500</v>
@@ -2519,7 +2519,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F61" t="n">
-        <v>9.633565902709961</v>
+        <v>9.633563995361328</v>
       </c>
       <c r="G61" t="n">
         <v>7600</v>
@@ -2554,7 +2554,7 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F62" t="n">
-        <v>9.451472282409668</v>
+        <v>9.451473236083984</v>
       </c>
       <c r="G62" t="n">
         <v>5800</v>
@@ -2589,7 +2589,7 @@
         <v>10.07999992370605</v>
       </c>
       <c r="F63" t="n">
-        <v>9.149436950683594</v>
+        <v>9.14943790435791</v>
       </c>
       <c r="G63" t="n">
         <v>18800</v>
@@ -2624,7 +2624,7 @@
         <v>10.78999996185303</v>
       </c>
       <c r="F64" t="n">
-        <v>9.793890953063965</v>
+        <v>9.793891906738281</v>
       </c>
       <c r="G64" t="n">
         <v>5000</v>
@@ -2659,7 +2659,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="F65" t="n">
-        <v>9.812045097351074</v>
+        <v>9.812046051025391</v>
       </c>
       <c r="G65" t="n">
         <v>700</v>
@@ -2729,7 +2729,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F67" t="n">
-        <v>10.05712127685547</v>
+        <v>10.05711936950684</v>
       </c>
       <c r="G67" t="n">
         <v>10300</v>
@@ -2764,7 +2764,7 @@
         <v>10.5</v>
       </c>
       <c r="F68" t="n">
-        <v>9.530662536621094</v>
+        <v>9.53066349029541</v>
       </c>
       <c r="G68" t="n">
         <v>2500</v>
@@ -2834,7 +2834,7 @@
         <v>10.21000003814697</v>
       </c>
       <c r="F70" t="n">
-        <v>9.54365348815918</v>
+        <v>9.543652534484863</v>
       </c>
       <c r="G70" t="n">
         <v>2200</v>
@@ -2904,7 +2904,7 @@
         <v>10.11999988555908</v>
       </c>
       <c r="F72" t="n">
-        <v>9.459526062011719</v>
+        <v>9.459527969360352</v>
       </c>
       <c r="G72" t="n">
         <v>4500</v>
@@ -2939,7 +2939,7 @@
         <v>10.67000007629395</v>
       </c>
       <c r="F73" t="n">
-        <v>9.973630905151367</v>
+        <v>9.973631858825684</v>
       </c>
       <c r="G73" t="n">
         <v>5700</v>
@@ -2974,7 +2974,7 @@
         <v>10.77000045776367</v>
       </c>
       <c r="F74" t="n">
-        <v>10.06710529327393</v>
+        <v>10.06710433959961</v>
       </c>
       <c r="G74" t="n">
         <v>2300</v>
@@ -3079,7 +3079,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F77" t="n">
-        <v>9.496095657348633</v>
+        <v>9.496094703674316</v>
       </c>
       <c r="G77" t="n">
         <v>12000</v>
@@ -3114,7 +3114,7 @@
         <v>8.229999542236328</v>
       </c>
       <c r="F78" t="n">
-        <v>7.74557638168335</v>
+        <v>7.745574951171875</v>
       </c>
       <c r="G78" t="n">
         <v>7500</v>
@@ -3149,7 +3149,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F79" t="n">
-        <v>8.263202667236328</v>
+        <v>8.263201713562012</v>
       </c>
       <c r="G79" t="n">
         <v>8300</v>
@@ -3184,7 +3184,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F80" t="n">
-        <v>8.799653053283691</v>
+        <v>8.799652099609375</v>
       </c>
       <c r="G80" t="n">
         <v>13000</v>
@@ -3324,7 +3324,7 @@
         <v>8.979999542236328</v>
       </c>
       <c r="F84" t="n">
-        <v>8.636565208435059</v>
+        <v>8.636566162109375</v>
       </c>
       <c r="G84" t="n">
         <v>34400</v>
@@ -3359,7 +3359,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F85" t="n">
-        <v>8.136453628540039</v>
+        <v>8.136452674865723</v>
       </c>
       <c r="G85" t="n">
         <v>500</v>
@@ -3872,34 +3872,34 @@
         <v>44562</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="D100" t="n">
-        <v>10.97999954223633</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="E100" t="n">
-        <v>10.97999954223633</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="F100" t="n">
-        <v>10.97999954223633</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="G100" t="n">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="H100" t="n">
-        <v>0.005494456549742566</v>
+        <v>0.004578772013327015</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05951931235155774</v>
+        <v>0.05951820428095569</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03098590943908364</v>
+        <v>0.03004701032493529</v>
       </c>
       <c r="K100" t="n">
-        <v>0.03098590943908364</v>
+        <v>0.03004701032493529</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/PGAL.xlsx
+++ b/etf_dfs/PGAL.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>PGAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3483 +406,3430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PGAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>41579</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>15.72000026702881</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15.78999996185303</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>15.72000026702881</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>15.78999996185303</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>11.94230365753174</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>17200</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>41609</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>15.84000015258789</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>15.84000015258789</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>15.81999969482422</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>15.81999969482422</v>
       </c>
-      <c r="F3" t="n">
-        <v>11.96499252319336</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>11.96499156951904</v>
+      </c>
+      <c r="G3">
         <v>1100</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.001899919762106794</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>41640</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>15.82999992370605</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>15.88000011444092</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>15.69999980926514</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>15.82999992370605</v>
       </c>
-      <c r="F4" t="n">
-        <v>11.97255802154541</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>11.97255706787109</v>
+      </c>
+      <c r="G4">
         <v>4700</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.0006321257316526108</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0008964657560819776</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>41671</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>17.54000091552734</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>17.56999969482422</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>17.32999992370605</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>17.45000076293945</v>
       </c>
-      <c r="F5" t="n">
-        <v>13.19779777526855</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>13.19779586791992</v>
+      </c>
+      <c r="G5">
         <v>30700</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.1023373876842149</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.05835702267529225</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>41699</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18.26000022888184</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18.26000022888184</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>18.10000038146973</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>18.17000007629395</v>
       </c>
-      <c r="F6" t="n">
-        <v>13.74234771728516</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>13.74234485626221</v>
+      </c>
+      <c r="G6">
         <v>9200</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.04126070383238245</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.04775245767200374</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>41730</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>18.04999923706055</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>18.21999931335449</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>17.95000076293945</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>18.21999931335449</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>13.7801628112793</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5700</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.002751746662113641</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.04402784610146114</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>41760</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>17.64999961853027</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>17.67000007629395</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>17.56999969482422</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>17.67000007629395</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>13.36418724060059</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2100</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-0.03018656738682868</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.04636830919011356</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>41791</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>17.23999977111816</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>17.34000015258789</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>17.1299991607666</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>17.13999938964844</v>
       </c>
-      <c r="F9" t="n">
-        <v>12.96333599090576</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>12.96333789825439</v>
+      </c>
+      <c r="G9">
         <v>39300</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.02999437942032357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.04632112580789181</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>41821</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>15.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>15.19999980926514</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>15.35000038146973</v>
       </c>
-      <c r="F10" t="n">
-        <v>11.60952186584473</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>11.60952281951904</v>
+      </c>
+      <c r="G10">
         <v>102000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-0.1044340181983767</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.05960990157437661</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>41852</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>14.93000030517578</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14.94999980926514</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>14.73999977111816</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>14.89000034332275</v>
       </c>
-      <c r="F11" t="n">
-        <v>11.26161575317383</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>11.26161479949951</v>
+      </c>
+      <c r="G11">
         <v>42200</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-0.02996742845050848</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.05653573088908557</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>41883</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>13.85999965667725</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13.96000003814697</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13.80000019073486</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>13.85999965667725</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>10.48260498046875</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>65300</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-0.06917398676269337</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.05702611098618975</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>41913</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12.59000015258789</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>12.68000030517578</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12.47999954223633</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>12.65999984741211</v>
       </c>
-      <c r="F13" t="n">
-        <v>9.575019836425781</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>9.575018882751465</v>
+      </c>
+      <c r="G13">
         <v>25100</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-0.08658007496320685</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.05864645845651281</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>41944</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>12.27999973297119</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>12.27999973297119</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>12.11999988555908</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>12.15999984741211</v>
       </c>
-      <c r="F14" t="n">
-        <v>9.196859359741211</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>9.196860313415527</v>
+      </c>
+      <c r="G14">
         <v>8400</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-0.03949447125010885</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.05625049242312889</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-0.2298923447251815</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>-0.2298923447251815</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>41974</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>10.48999977111816</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>10.52000045776367</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>10.31999969482422</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>10.31999969482422</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>7.969173908233643</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>30100</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.1513158039207936</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.06500225687083533</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-0.3476611950757128</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>-0.3476611950757128</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>42005</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>10.43000030517578</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10.43000030517578</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>10.27999973297119</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>10.34000015258789</v>
       </c>
-      <c r="F16" t="n">
-        <v>7.984618663787842</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>7.984619140625</v>
+      </c>
+      <c r="G16">
         <v>207500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.001938028910378975</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.06303909675358231</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>-0.3468098419189928</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>-0.3468098419189928</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>42036</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>11.51000022888184</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>11.57999992370605</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>11.47000026702881</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>11.52999973297119</v>
       </c>
-      <c r="F17" t="n">
-        <v>8.903544425964355</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>8.903543472290039</v>
+      </c>
+      <c r="G17">
         <v>9200</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.1150869983387253</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.07108250509209763</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-0.3392550585178907</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>-0.3392550585178907</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>42064</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>11.46000003814697</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>11.60000038146973</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>11.44999980926514</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>11.52999973297119</v>
       </c>
-      <c r="F18" t="n">
-        <v>8.903544425964355</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>8.903543472290039</v>
+      </c>
+      <c r="G18">
         <v>47800</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.06882527123804429</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>-0.3654375517579571</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-0.3654375517579571</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>42095</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>12.30000019073486</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>12.31999969482422</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>12.23999977111816</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>12.26000022888184</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>9.467255592346191</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>52200</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.0633131407473615</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.06944206073746421</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-0.3271130246478235</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>-0.3271130246478235</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>42125</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.86999988555908</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>11.94999980926514</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>11.77999973297119</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>11.89000034332275</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>9.181539535522461</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>43300</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-0.03017943545281876</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.06749793981412959</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>-0.3271080762883319</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>-0.3271080762883319</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>42156</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>11.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>11.5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>11.0600004196167</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>11.28999996185303</v>
       </c>
-      <c r="F21" t="n">
-        <v>8.718214988708496</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>8.718215942382812</v>
+      </c>
+      <c r="G21">
         <v>115300</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-0.05046260421738991</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.06614350109401376</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>-0.3413068632504427</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>-0.3413068632504427</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>42186</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11.22999954223633</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>11.32999992370605</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>11.18000030517578</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>11.1899995803833</v>
       </c>
-      <c r="F22" t="n">
-        <v>8.640995025634766</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>8.640994071960449</v>
+      </c>
+      <c r="G22">
         <v>19100</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-0.008857429743809653</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.06439596823197873</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>-0.2710098174400251</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-0.2710098174400251</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>42217</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10.53999996185303</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>10.53999996185303</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>10.48999977111816</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>10.51000022888184</v>
       </c>
-      <c r="F23" t="n">
-        <v>8.115893363952637</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23">
+        <v>8.11589527130127</v>
+      </c>
+      <c r="G23">
         <v>4800</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-0.06076848766764409</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.06355264212349573</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>-0.2941571533546053</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>-0.2941571533546053</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>42248</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10.0600004196167</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>10.14000034332275</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>10.02999973297119</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>10.09000015258789</v>
       </c>
-      <c r="F24" t="n">
-        <v>7.791568756103516</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>7.791567325592041</v>
+      </c>
+      <c r="G24">
         <v>12600</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-0.03996194739746728</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.06220980873365746</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>-0.2720057429635726</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>-0.2720057429635726</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>42278</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10.77999973297119</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.84000015258789</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>10.76000022888184</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>10.78999996185303</v>
       </c>
-      <c r="F25" t="n">
-        <v>8.332112312316895</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>8.332113265991211</v>
+      </c>
+      <c r="G25">
         <v>16600</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.06937559947267191</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.06346820214406634</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>-0.14770931343584</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-0.14770931343584</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>42309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10.28999996185303</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>10.28999996185303</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>10.1899995803833</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>10.1899995803833</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>7.86878776550293</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1700</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-0.05560707910945029</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.06263855146489501</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>-0.1620066029398893</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-0.1620066029398893</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>42339</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10.10000038146973</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>10.17000007629395</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9.989999771118164</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>10.10999965667725</v>
       </c>
-      <c r="F27" t="n">
-        <v>8.156124114990234</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>8.156123161315918</v>
+      </c>
+      <c r="G27">
         <v>56600</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-0.007850826987280901</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.06134233599904972</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>-0.02034884150745608</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>-0.02034884150745608</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>42370</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>9.420000076293945</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>9.619999885559082</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>9.369999885559082</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>9.590000152587891</v>
       </c>
-      <c r="F28" t="n">
-        <v>7.736620903015137</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28">
+        <v>7.73661994934082</v>
+      </c>
+      <c r="G28">
         <v>9900</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.05143417623618973</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.06050677158051199</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>-0.07253384805920826</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-0.07253384805920826</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>42401</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>8.930000305175781</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>8.989999771118164</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>8.930000305175781</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>8.949999809265137</v>
       </c>
-      <c r="F29" t="n">
-        <v>7.220306873321533</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>7.22030782699585</v>
+      </c>
+      <c r="G29">
         <v>12800</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-0.06673621826273357</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.06009222198565809</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>-0.2237640922339561</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-0.2237640922339561</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>42430</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>10.28999996185303</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.28999996185303</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>10.14000034332275</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>10.14000034332275</v>
       </c>
-      <c r="F30" t="n">
-        <v>8.180326461791992</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>8.180327415466309</v>
+      </c>
+      <c r="G30">
         <v>7500</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.1329609563595426</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.06559433875432785</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>-0.1205550235767651</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-0.1205550235767651</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>42461</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>10.22000026702881</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>10.34000015258789</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>10.22000026702881</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>10.28999996185303</v>
       </c>
-      <c r="F31" t="n">
-        <v>8.301337242126465</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>8.301336288452148</v>
+      </c>
+      <c r="G31">
         <v>9100</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.01479286128713486</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.06462813756798329</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>-0.1606851737561902</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>-0.1606851737561902</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>42491</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>10.18000030517578</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>10.22000026702881</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10.10000038146973</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>10.10000038146973</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>8.148056983947754</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3600</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-0.01846448795798494</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.06351297706469745</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>-0.1505466703252254</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>-0.1505466703252254</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>42522</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>9.409999847412109</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>9.449999809265137</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>9.300000190734863</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>9.409999847412109</v>
       </c>
-      <c r="F33" t="n">
-        <v>7.59140682220459</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>7.591407299041748</v>
+      </c>
+      <c r="G33">
         <v>11900</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-0.06831688197988073</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.06323547005857291</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>-0.1665190541003646</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>-0.1665190541003646</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>42552</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>9.949999809265137</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>10.07999992370605</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>9.949999809265137</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>10.03999996185303</v>
       </c>
-      <c r="F34" t="n">
-        <v>8.099653244018555</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>8.099652290344238</v>
+      </c>
+      <c r="G34">
         <v>37600</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>0.06695006638221979</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.06385684445018328</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>-0.1027703004159435</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>-0.1027703004159435</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>42583</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>10.15999984741211</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>10.15999984741211</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10.05000019073486</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>10.07999992370605</v>
       </c>
-      <c r="F35" t="n">
-        <v>8.131921768188477</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>8.131922721862793</v>
+      </c>
+      <c r="G35">
         <v>1500</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.003984059960657982</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.06291332256336629</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>-0.04091344394019381</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>-0.04091344394019381</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>42614</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>9.869999885559082</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>9.909999847412109</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9.869999885559082</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>9.890000343322754</v>
       </c>
-      <c r="F36" t="n">
-        <v>7.978641510009766</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>7.978642463684082</v>
+      </c>
+      <c r="G36">
         <v>49400</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-0.01884916486323196</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.06196526119449611</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>-0.01982158634693787</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>-0.01982158634693787</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>42644</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>9.840000152587891</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>9.850000381469727</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9.810000419616699</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>9.850000381469727</v>
       </c>
-      <c r="F37" t="n">
-        <v>7.946372509002686</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>7.946372032165527</v>
+      </c>
+      <c r="G37">
         <v>4900</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.004044485385688912</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.06106129645702538</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>-0.08711766299412194</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>-0.08711766299412194</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>42675</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>9.25</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>9.25</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>9.210000038146973</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>9.220000267028809</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>7.438127994537354</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1900</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-0.06395940000429878</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.06081247415334551</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>-0.09519130061809145</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>-0.09519130061809145</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>42705</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9.310000419616699</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>9.369999885559082</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9.300000190734863</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>9.310000419616699</v>
       </c>
-      <c r="F39" t="n">
-        <v>7.833629608154297</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>7.83362865447998</v>
+      </c>
+      <c r="G39">
         <v>38400</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>0.009761404553287889</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.06007893978643231</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>-0.07912950190183043</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>-0.07912950190183043</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>42736</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>9.159999847412109</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9.220000267028809</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>9.140000343322754</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>9.220000267028809</v>
       </c>
-      <c r="F40" t="n">
-        <v>7.757900714874268</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>7.757901191711426</v>
+      </c>
+      <c r="G40">
         <v>53600</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-0.009667040658586368</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.05926318565388169</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>-0.03858184355286343</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-0.03858184355286343</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>42767</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>9.430000305175781</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>9.5</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>9.430000305175781</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>9.460000038146973</v>
       </c>
-      <c r="F41" t="n">
-        <v>7.959839344024658</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>7.959841251373291</v>
+      </c>
+      <c r="G41">
         <v>18300</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>0.02603034318517494</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.05880024965583425</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0.05698326701123269</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.05698326701123269</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>42795</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>10.23999977111816</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>10.30000019073486</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>10.21000003814697</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>10.26000022888184</v>
       </c>
-      <c r="F42" t="n">
-        <v>8.632976531982422</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>8.632978439331055</v>
+      </c>
+      <c r="G42">
         <v>557300</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.08456661601574034</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.05999073001291761</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.01183430783985151</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.01183430783985151</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>42826</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>10.36999988555908</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>10.43000030517578</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>10.36999988555908</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>10.39000034332275</v>
       </c>
-      <c r="F43" t="n">
-        <v>8.742361068725586</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>8.742362976074219</v>
+      </c>
+      <c r="G43">
         <v>11100</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0.01267057617357237</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.05933240449984997</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>0.009718210091394175</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>0.009718210091394175</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>42856</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>11.55000019073486</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>11.61999988555908</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>11.52999973297119</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>11.5600004196167</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>9.726824760437012</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>33200</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0.112608280811642</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.06150885635253452</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>0.144554453762755</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.144554453762755</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>42887</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>11.21000003814697</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>11.30000019073486</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>11.17000007629395</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>11.25</v>
       </c>
-      <c r="F45" t="n">
-        <v>9.465984344482422</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45">
+        <v>9.465983390808105</v>
+      </c>
+      <c r="G45">
         <v>16700</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-0.02681664432214426</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.06085861554534697</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>0.1955366825105653</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.1955366825105653</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>42917</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>11.73999977111816</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>11.77999973297119</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>11.69999980926514</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>11.76000022888184</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>9.895109176635742</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>157900</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>0.04533335367838531</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.06064359299529102</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>0.1713147682832619</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>0.1713147682832619</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>42948</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>11.84000015258789</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>11.89999961853027</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>11.82999992370605</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>11.89999961853027</v>
       </c>
-      <c r="F47" t="n">
-        <v>10.01290702819824</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>10.01290798187256</v>
+      </c>
+      <c r="G47">
         <v>16300</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>0.01190470977242053</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.06000271356174516</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>0.1805555266467771</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>0.1805555266467771</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>42979</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>12.5</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>12.52999973297119</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>12.47000026702881</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>12.52999973297119</v>
       </c>
-      <c r="F48" t="n">
-        <v>10.54300117492676</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>10.54300212860107</v>
+      </c>
+      <c r="G48">
         <v>11300</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>0.05294118778456958</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.05993389863653361</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>0.2669362283117449</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>0.2669362283117449</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>43009</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>12.48999977111816</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>12.53999996185303</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>12.47000026702881</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>12.47999954223633</v>
       </c>
-      <c r="F49" t="n">
-        <v>10.50093173980713</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>10.50093078613281</v>
+      </c>
+      <c r="G49">
         <v>36800</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-0.003990438292132858</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.05927895907459151</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>0.2670049806002319</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.2670049806002319</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>43040</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>12.23999977111816</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>12.23999977111816</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>12.13000011444092</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>12.15999984741211</v>
       </c>
-      <c r="F50" t="n">
-        <v>10.23167705535889</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>10.2316780090332</v>
+      </c>
+      <c r="G50">
         <v>3500</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-0.02564100212834441</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.05873371273168583</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>0.3188719626068655</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.3188719626068655</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>43070</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>11.96000003814697</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>11.97000026702881</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>11.81999969482422</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>11.89000034332275</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>10.30990982055664</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>11800</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-0.02220390686491802</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.05817848983738103</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>0.2771213541805915</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.2771213541805915</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>43101</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>12.75</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>12.75</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>12.64999961853027</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>12.67000007629395</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>10.98625373840332</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>11900</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>0.06560132131612817</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.05841986340305969</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>0.3741865194519041</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>0.3741865194519041</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>43132</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>12.17000007629395</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>12.18000030517578</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>12.05000019073486</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>12.05000019073486</v>
       </c>
-      <c r="F53" t="n">
-        <v>10.44864749908447</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>10.44864654541016</v>
+      </c>
+      <c r="G53">
         <v>82100</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-0.04893448159634395</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.05819356942517363</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>0.2737843702054805</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>0.2737843702054805</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>43160</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>12.31999969482422</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>12.35999965667725</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>12.25</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>12.26000022888184</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>10.63073921203613</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>127100</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>0.01742738878198846</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.05769417552318516</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>0.194931769530571</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>0.194931769530571</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>43191</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>12.61999988555908</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>12.61999988555908</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>12.52000045776367</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>12.52000045776367</v>
       </c>
-      <c r="F55" t="n">
-        <v>10.85618877410889</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>10.85618782043457</v>
+      </c>
+      <c r="G55">
         <v>11300</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0.02120719608710386</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.05723521656301046</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>0.2050048165599712</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>0.2050048165599712</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>43221</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>12.51000022888184</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>12.63000011444092</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>12.46000003814697</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>12.52999973297119</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>10.86485767364502</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>16700</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>0.0007986641247539339</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.0566947648032852</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>0.08390997215782581</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>0.08390997215782581</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>43252</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>12.8100004196167</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>12.82999992370605</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>12.68000030517578</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>12.6899995803833</v>
       </c>
-      <c r="F57" t="n">
-        <v>11.00359630584717</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>11.00359535217285</v>
+      </c>
+      <c r="G57">
         <v>9400</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.01276934164580146</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.05620607469981867</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>0.1279999627007378</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>0.1279999627007378</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>43282</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>13</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>13.19999980926514</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>12.88000011444092</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>12.94999980926514</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>11.22904396057129</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>25200</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>0.02048859239394729</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.05577682382844088</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>0.1011904385393407</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>0.1011904385393407</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>43313</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>12.53999996185303</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>12.53999996185303</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>12.40999984741211</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>12.40999984741211</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>10.76080703735352</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>2100</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.04169883936729346</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.05552599554582524</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>0.04285716346475188</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>0.04285716346475188</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>43344</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>12.27000045776367</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>12.28999996185303</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>12.02999973297119</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>12.15999984741211</v>
       </c>
-      <c r="F60" t="n">
-        <v>10.54402828216553</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="F60">
+        <v>10.54402923583984</v>
+      </c>
+      <c r="G60">
         <v>40500</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-0.02014504456679211</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.05508438960487702</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>-0.02952912158373566</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-0.02952912158373566</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>43374</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>11.14999961853027</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>11.19999980926514</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>11.10999965667725</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>11.10999965667725</v>
       </c>
-      <c r="F61" t="n">
-        <v>9.633563995361328</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>9.633564949035645</v>
+      </c>
+      <c r="G61">
         <v>7600</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>-0.08634870097949254</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.05567498299634482</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>-0.109775635882242</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>-0.109775635882242</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>43405</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>10.82999992370605</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>10.93000030517578</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>10.81999969482422</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>10.89999961853027</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>9.451473236083984</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>5800</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>-0.01890189420669874</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.05523280288082828</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>-0.1036184411753911</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>-0.1036184411753911</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>43435</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>9.989999771118164</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>10.10000038146973</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>9.930000305175781</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>10.07999992370605</v>
       </c>
-      <c r="F63" t="n">
-        <v>9.14943790435791</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63">
+        <v>9.149435043334961</v>
+      </c>
+      <c r="G63">
         <v>18800</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-0.07522933243320473</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.05551088350457451</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>-0.1522287945629176</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>-0.1522287945629176</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>43466</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>10.68000030517578</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>10.82999992370605</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>10.68000030517578</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>10.78999996185303</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>9.793891906738281</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>5000</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>0.07043651225405267</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.05589924686874512</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.1483820128745279</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>-0.1483820128745279</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>43497</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>10.77999973297119</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>10.81999969482422</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>10.77999973297119</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>10.8100004196167</v>
       </c>
-      <c r="F65" t="n">
-        <v>9.812046051025391</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>9.812045097351074</v>
+      </c>
+      <c r="G65">
         <v>700</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>0.001853610549989115</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.05545255099709247</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>-0.1029045436921726</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>-0.1029045436921726</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>43525</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>10.76000022888184</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>10.89999961853027</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>10.75</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>10.81999969482422</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>9.821122169494629</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>146100</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>0.0009250022959641502</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.05501484688602287</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>-0.1174551800305269</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>-0.1174551800305269</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>43556</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>11.10000038146973</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>11.10000038146973</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>11.01000022888184</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>11.07999992370605</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>10.05711936950684</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>10300</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>0.02402959669270666</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.05469713745691711</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>-0.1150160128919701</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>-0.1150160128919701</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>43586</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>10.47000026702881</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>10.51000022888184</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>10.47000026702881</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>10.5</v>
       </c>
-      <c r="F68" t="n">
-        <v>9.53066349029541</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>9.530662536621094</v>
+      </c>
+      <c r="G68">
         <v>2500</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-0.05234656387182135</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.0546005411433883</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>-0.162011155325845</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>-0.162011155325845</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>43617</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>10.52999973297119</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>10.55000019073486</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>10.51000022888184</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>10.51000022888184</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>9.824073791503906</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>3200</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.0009524027506511157</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.05418971551038194</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>-0.1717887646640582</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>-0.1717887646640582</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>43647</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>10.31999969482422</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>10.31999969482422</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>10.11999988555908</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>10.21000003814697</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>9.543652534484863</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>2200</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>-0.02854426110386299</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.05386204314455413</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>-0.2115829970250516</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>-0.2115829970250516</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>43678</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>9.840000152587891</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9.899999618530273</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>9.829999923706055</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>9.880000114440918</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>9.235189437866211</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>5600</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>-0.03232124607963727</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.05356587735156325</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>-0.203867829498707</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>-0.203867829498707</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>43709</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>10.11999988555908</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>10.11999988555908</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>10.09000015258789</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>10.11999988555908</v>
       </c>
-      <c r="F72" t="n">
-        <v>9.459527969360352</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72">
+        <v>9.459526062011719</v>
+      </c>
+      <c r="G72">
         <v>4500</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>0.02429147452816038</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.05329427025761248</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>-0.1677631568628004</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>-0.1677631568628004</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>43739</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>10.67000007629395</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>10.67000007629395</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>10.64000034332275</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>10.67000007629395</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>9.973631858825684</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>5700</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>0.05434784554886174</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.05337794984482305</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>-0.03960392385060563</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>-0.03960392385060563</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>43770</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>10.77999973297119</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>10.81999969482422</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>10.71000003814697</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>10.77000045776367</v>
       </c>
-      <c r="F74" t="n">
-        <v>10.06710433959961</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>10.06710529327393</v>
+      </c>
+      <c r="G74">
         <v>2300</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.009372106912342248</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.05302449623429915</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>-0.01192652892809276</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>-0.01192652892809276</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>43800</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>11.10999965667725</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>11.11999988555908</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>11.06999969482422</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>11.11999988555908</v>
       </c>
-      <c r="F75" t="n">
-        <v>10.46546840667725</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>10.46546745300293</v>
+      </c>
+      <c r="G75">
         <v>5200</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>0.03249762422647895</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.05282716387391517</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>0.1031746001710938</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>0.1031746001710938</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>43831</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>11.02999973297119</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>11.10000038146973</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>11.02999973297119</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>11.02999973297119</v>
       </c>
-      <c r="F76" t="n">
-        <v>10.38076496124268</v>
-      </c>
-      <c r="G76" t="n">
+      <c r="F76">
+        <v>10.38076591491699</v>
+      </c>
+      <c r="G76">
         <v>7300</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>-0.008093538985083026</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.05246690463711633</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.02224279628977377</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>0.02224279628977377</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>43862</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>10.14000034332275</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>10.14000034332275</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>9.869999885559082</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>10.09000015258789</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>9.496094703674316</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>12000</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-0.08522208550680443</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.05295913041154553</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>-0.06660501749123326</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>-0.06660501749123326</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>43891</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>8.130000114440918</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>8.430000305175781</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>8.130000114440918</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>8.229999542236328</v>
       </c>
-      <c r="F78" t="n">
-        <v>7.745574951171875</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>7.745575428009033</v>
+      </c>
+      <c r="G78">
         <v>7500</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-0.1843409893184698</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.05650232009639176</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>-0.2393715550497497</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>-0.2393715550497497</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>43922</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>8.609999656677246</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>8.819999694824219</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>8.609999656677246</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>8.779999732971191</v>
       </c>
-      <c r="F79" t="n">
-        <v>8.263201713562012</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79">
+        <v>8.263203620910645</v>
+      </c>
+      <c r="G79">
         <v>8300</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>0.06682870246981953</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.05675532585760121</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>-0.2075812460805104</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>-0.2075812460805104</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>43952</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>9.199999809265137</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>9.350000381469727</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>9.189999580383301</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>9.350000381469727</v>
       </c>
-      <c r="F80" t="n">
-        <v>8.799652099609375</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>8.799653053283691</v>
+      </c>
+      <c r="G80">
         <v>13000</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>0.0649203491838426</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.05695413470738892</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>-0.1095237731933594</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>-0.1095237731933594</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>43983</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>9.220000267028809</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>9.270000457763672</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>9.220000267028809</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>9.270000457763672</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>8.915475845336914</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>29900</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-0.008556141223758917</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.05658922786668701</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>-0.1179828491069489</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>-0.1179828491069489</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>44013</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>9.739999771118164</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>9.739999771118164</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>9.470000267028809</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>9.5</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>9.136678695678711</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>7000</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>0.02481116837957686</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.05632935902491575</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>-0.06953967046956366</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>-0.06953967046956366</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>44044</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>9.810000419616699</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>9.810000419616699</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>9.670000076293945</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>9.729999542236328</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>9.357882499694824</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>700</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.02421047813013977</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.05606852568768247</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>-0.01518224397440482</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-0.01518224397440482</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>44075</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>8.960000038146973</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>8.979999542236328</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>8.909999847412109</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>8.979999542236328</v>
       </c>
-      <c r="F84" t="n">
-        <v>8.636566162109375</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84">
+        <v>8.636565208435059</v>
+      </c>
+      <c r="G84">
         <v>34400</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-0.07708119581551609</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.05629676513039018</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>-0.1126482565429173</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-0.1126482565429173</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>44105</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>8.420000076293945</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>8.470000267028809</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>8.420000076293945</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>8.460000038146973</v>
       </c>
-      <c r="F85" t="n">
-        <v>8.136452674865723</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85">
+        <v>8.136453628540039</v>
+      </c>
+      <c r="G85">
         <v>500</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-0.05790640652525669</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.05624998225157479</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.2071227762272502</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-0.2071227762272502</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>44136</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>10.35000038146973</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>10.35000038146973</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>10.14999961853027</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>10.17000007629395</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>9.781054496765137</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>21000</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.2021276631721529</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.06034175568886718</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>-0.05571033945845472</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-0.05571033945845472</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>44166</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>11.05000019073486</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>11.05000019073486</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>11</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>11</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>10.64168453216553</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>2600</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.08161257792325549</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.06068652467089207</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>-0.01079135672608411</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-0.01079135672608411</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>44197</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>10.64999961853027</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>10.64999961853027</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>10.64999961853027</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>10.64999961853027</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>10.30308532714844</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>1900</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>-0.03181821649724792</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.06041169993060207</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>-0.03445150712968836</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-0.03445150712968836</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>44228</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>10.93000030517578</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>10.93000030517578</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>10.72000026702881</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>10.80000019073486</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>10.44820022583008</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>34500</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>0.01408456127487545</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.06008660507234333</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>0.07036670241921361</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>0.07036670241921361</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>44256</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>11.07999992370605</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>11.07999992370605</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>11.05000019073486</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>11.07999992370605</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>10.71907901763916</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>6900</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>0.02592590074316825</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.05981747177809556</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>0.3462941117850049</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>0.3462941117850049</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>44287</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>11.53999996185303</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>11.53999996185303</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>11.3100004196167</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>11.3100004196167</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>10.94158744812012</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>19000</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>0.02075816764389593</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.05952660236926249</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>0.288154984463689</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>0.288154984463689</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>44317</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>12.22000026702881</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>12.31999969482422</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>12.22000026702881</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>12.31999969482422</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>11.91868686676025</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>1200</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>0.08930143569718352</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.05996835157447932</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>0.3176469724258597</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>0.3176469724258597</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>44348</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>11.09000015258789</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>11.11999988555908</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>11.0600004196167</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>11.07999992370605</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>11.00734424591064</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>4900</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>-0.1006493345644403</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.06054271613267478</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>0.1952534386798761</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>0.1952534386798761</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>44378</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>10.77999973297119</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>10.77999973297119</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>10.77999973297119</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>10.77999973297119</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>10.70931053161621</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>200</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>-0.0270758296751431</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.06026555813680717</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>0.1347368139969676</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>0.1347368139969676</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>44409</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>11.3100004196167</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>11.40999984741211</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>11.3100004196167</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>11.40999984741211</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>11.33518028259277</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>1900</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>0.05844157050524124</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.06026763362265112</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>0.1726619099911748</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>0.1726619099911748</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>44440</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>11.02999973297119</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>11.02999973297119</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>11.02999973297119</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>11.02999973297119</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>10.95767116546631</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>100</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>-0.03330412966895047</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.060031368645456</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>0.228285110828006</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>0.228285110828006</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>44470</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>11.64000034332275</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>11.69999980926514</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>11.64000034332275</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>11.68000030517578</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>11.60340976715088</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>1400</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.05893024369362299</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.06003780751741485</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>0.3806146870578617</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>0.3806146870578617</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>44501</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>10.90999984741211</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>10.90999984741211</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>10.85000038146973</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>10.85999965667725</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>10.78878593444824</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>200</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>-0.070205533139855</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.06013263828973828</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>0.06784656590039506</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>0.06784656590039506</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>44531</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>10.9399995803833</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>10.97000026702881</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>10.92000007629395</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>10.92000007629395</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>10.92000007629395</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>1200</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>0.005524900691852963</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.05982363771059424</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>-0.007272720336914062</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-0.007272720336914062</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>44562</v>
       </c>
-      <c r="B100" t="n">
-        <v>10.97000026702881</v>
-      </c>
-      <c r="C100" t="n">
-        <v>10.97000026702881</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10.97000026702881</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10.97000026702881</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10.97000026702881</v>
-      </c>
-      <c r="G100" t="n">
-        <v>200</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.004578772013327015</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.05951820428095569</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.03004701032493529</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.03004701032493529</v>
+      <c r="B100">
+        <v>10.68000030517578</v>
+      </c>
+      <c r="C100">
+        <v>10.72000026702881</v>
+      </c>
+      <c r="D100">
+        <v>10.64999961853027</v>
+      </c>
+      <c r="E100">
+        <v>10.64999961853027</v>
+      </c>
+      <c r="F100">
+        <v>10.64999961853027</v>
+      </c>
+      <c r="G100">
+        <v>5100</v>
+      </c>
+      <c r="H100">
+        <v>-0.02472531647227838</v>
+      </c>
+      <c r="I100">
+        <v>0.05955864185280248</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>